--- a/biology/Botanique/Asphodelus_cerasiferus/Asphodelus_cerasiferus.xlsx
+++ b/biology/Botanique/Asphodelus_cerasiferus/Asphodelus_cerasiferus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asphodelus cerasiferus
-L’Asphodèle porte-cerise (Asphodelus cerasiferus) est une espèce de plantes herbacées vivaces. Elle appartient à la famille des Liliaceae selon la classification classique, ou à celle des Asphodelaceae (ou optionnellement à celle des Xanthorrhoeaceae lato sensu) selon la classification phylogénétique APG II (2003)[1] et au genre Asphodelus.
+L’Asphodèle porte-cerise (Asphodelus cerasiferus) est une espèce de plantes herbacées vivaces. Elle appartient à la famille des Liliaceae selon la classification classique, ou à celle des Asphodelaceae (ou optionnellement à celle des Xanthorrhoeaceae lato sensu) selon la classification phylogénétique APG II (2003) et au genre Asphodelus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle mesure environ 1 m de hauteur[2] (de 0,5 à 1,2 m de haut[3]) avec des feuilles lancéolées disposées en rosette et une longue tige florale portant une inflorescence en épi avec des fleurs blanches de 2 à 2,4 cm de diamètre[2] apparaissant d'avril à juin[4]. Le fruit a les dimensions d'une grosse cerise (1,6 à 2,2 cm de diamètre[2]) mais est de couleur beige fauve à gris-jaunâtre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle mesure environ 1 m de hauteur (de 0,5 à 1,2 m de haut) avec des feuilles lancéolées disposées en rosette et une longue tige florale portant une inflorescence en épi avec des fleurs blanches de 2 à 2,4 cm de diamètre apparaissant d'avril à juin. Le fruit a les dimensions d'une grosse cerise (1,6 à 2,2 cm de diamètre) mais est de couleur beige fauve à gris-jaunâtre.
 Cette espèce pousse dans les lieux arides des régions méditerranéennes.
 			Détail de la fleur.
 			Asphodelus cerasiferus fruits.
@@ -547,7 +561,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Asphodelus albus subsp. cerasiferus (J.Gay) Rouy
 Asphodelus australis Jord. &amp; Fourr.
@@ -579,7 +595,9 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Catégorie de l’UICN: LC, Préoccupation mineure.
 </t>
